--- a/doc/microbenchmarks/microbenchmark_with_waittime.xlsx
+++ b/doc/microbenchmarks/microbenchmark_with_waittime.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_183_95f1bb6c5b7ea024c2dc645e57fc556354b215a2" localSheetId="0">Sheet1!$A$32:$A$33</definedName>
     <definedName name="_184_1396cd0ded543ad96191ff76501368d41ea536cf" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="_184_139c525de056457267811795b3a6d352369ccd0f" localSheetId="0">Sheet1!$A$26:$K$27</definedName>
     <definedName name="_184_5d0a5212957b7ab1b0938224c2d93ff599638ec3" localSheetId="0">Sheet1!$A$22:$K$23</definedName>
@@ -27,25 +28,15 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="184_1396cd0ded543ad96191ff76501368d41ea536cf.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:lukas:Downloads:184_1396cd0ded543ad96191ff76501368d41ea536cf.csv" thousands="'" semicolon="1">
-      <textFields count="11">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="1" name="183_95f1bb6c5b7ea024c2dc645e57fc556354b215a2.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:lukas:Downloads:183_95f1bb6c5b7ea024c2dc645e57fc556354b215a2.csv" thousands="'">
+      <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="184_139c525de056457267811795b3a6d352369ccd0f.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:lukas:Downloads:184_139c525de056457267811795b3a6d352369ccd0f.csv" thousands="'" semicolon="1">
+  <connection id="2" name="184_1396cd0ded543ad96191ff76501368d41ea536cf.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:lukas:Downloads:184_1396cd0ded543ad96191ff76501368d41ea536cf.csv" thousands="'" semicolon="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -61,8 +52,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="184_5d0a5212957b7ab1b0938224c2d93ff599638ec3.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:lukas:Downloads:184_5d0a5212957b7ab1b0938224c2d93ff599638ec3.csv" thousands="'" semicolon="1">
+  <connection id="3" name="184_139c525de056457267811795b3a6d352369ccd0f.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:lukas:Downloads:184_139c525de056457267811795b3a6d352369ccd0f.csv" thousands="'" semicolon="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -78,8 +69,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="184_95800899ce5fe67325390f07728fa1df1de214a5.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:lukas:Downloads:184_95800899ce5fe67325390f07728fa1df1de214a5.csv" thousands="'" semicolon="1">
+  <connection id="4" name="184_5d0a5212957b7ab1b0938224c2d93ff599638ec3.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:lukas:Downloads:184_5d0a5212957b7ab1b0938224c2d93ff599638ec3.csv" thousands="'" semicolon="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -95,7 +86,24 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="184_ecb1e4beef89cb354a4b03b8580a2cfd1636e4c6.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="5" name="184_95800899ce5fe67325390f07728fa1df1de214a5.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:lukas:Downloads:184_95800899ce5fe67325390f07728fa1df1de214a5.csv" thousands="'" semicolon="1">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="184_ecb1e4beef89cb354a4b03b8580a2cfd1636e4c6.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:lukas:Downloads:184_ecb1e4beef89cb354a4b03b8580a2cfd1636e4c6.csv" thousands="'" semicolon="1">
       <textFields count="11">
         <textField/>
@@ -225,8 +233,86 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -322,7 +408,7 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="163">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -365,6 +451,45 @@
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -407,6 +532,45 @@
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -415,19 +579,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="184_ecb1e4beef89cb354a4b03b8580a2cfd1636e4c6" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="184_ecb1e4beef89cb354a4b03b8580a2cfd1636e4c6" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="184_139c525de056457267811795b3a6d352369ccd0f" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="183_95f1bb6c5b7ea024c2dc645e57fc556354b215a2" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="184_5d0a5212957b7ab1b0938224c2d93ff599638ec3" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="184_95800899ce5fe67325390f07728fa1df1de214a5" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="184_95800899ce5fe67325390f07728fa1df1de214a5" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="184_5d0a5212957b7ab1b0938224c2d93ff599638ec3" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="184_139c525de056457267811795b3a6d352369ccd0f" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -755,12 +923,12 @@
   <dimension ref="A1:T91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.1640625" customWidth="1"/>
@@ -879,10 +1047,22 @@
       <c r="K5" s="1">
         <v>14240</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="L5">
+        <f>I5-I13</f>
+        <v>155</v>
+      </c>
+      <c r="M5" s="2">
+        <f>L5/$I$9*100</f>
+        <v>2.2687353629976581</v>
+      </c>
+      <c r="N5">
+        <f>E5-E13</f>
+        <v>160.09432399999969</v>
+      </c>
+      <c r="O5" s="2">
+        <f>N5/$E$9*100</f>
+        <v>2.1736435689434725</v>
+      </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -1013,10 +1193,22 @@
       <c r="K9" s="1">
         <v>14914</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="L9" s="2">
+        <f>I9-I5</f>
+        <v>24</v>
+      </c>
+      <c r="M9" s="2">
+        <f>L9/$I$9*100</f>
+        <v>0.35128805620608899</v>
+      </c>
+      <c r="N9" s="2">
+        <f>E9-E5</f>
+        <v>261.24048599999969</v>
+      </c>
+      <c r="O9" s="2">
+        <f>N9/$E$9*100</f>
+        <v>3.5469321344682259</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1147,10 +1339,22 @@
       <c r="K13" s="1">
         <v>14072</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="L13" s="2">
+        <f>I13</f>
+        <v>6653</v>
+      </c>
+      <c r="M13" s="2">
+        <f>L13/$I$9*100</f>
+        <v>97.379976580796253</v>
+      </c>
+      <c r="N13" s="2">
+        <f>E13</f>
+        <v>6943.9170780000004</v>
+      </c>
+      <c r="O13" s="2">
+        <f>N13/$E$9*100</f>
+        <v>94.279424296588303</v>
+      </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -1292,10 +1496,22 @@
       <c r="K19">
         <v>28152</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="L19">
+        <f>I19-I27</f>
+        <v>1341</v>
+      </c>
+      <c r="M19" s="2">
+        <f>L19/$I$23*100</f>
+        <v>30.877273773889019</v>
+      </c>
+      <c r="N19">
+        <f>E19-E27</f>
+        <v>1736.6628388455301</v>
+      </c>
+      <c r="O19" s="2">
+        <f>N19/$E$23*100</f>
+        <v>31.288127992991516</v>
+      </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
@@ -1426,10 +1642,22 @@
       <c r="K23" s="2">
         <v>14138</v>
       </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="L23" s="2">
+        <f>I23-I19</f>
+        <v>-1018</v>
+      </c>
+      <c r="M23" s="2">
+        <f>L23/$I$23*100</f>
+        <v>-23.440018420446695</v>
+      </c>
+      <c r="N23">
+        <f>E19-E23</f>
+        <v>1458.5733806520502</v>
+      </c>
+      <c r="O23" s="2">
+        <f>N23/$E$23*100</f>
+        <v>26.278002615262292</v>
+      </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -1560,10 +1788,22 @@
       <c r="K27" s="2">
         <v>13747</v>
       </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="L27" s="2">
+        <f>I27</f>
+        <v>4020</v>
+      </c>
+      <c r="M27" s="2">
+        <f>L27/$I$23*100</f>
+        <v>92.562744646557675</v>
+      </c>
+      <c r="N27">
+        <f>E27</f>
+        <v>5272.4594248670201</v>
+      </c>
+      <c r="O27" s="2">
+        <f>N27/$E$23*100</f>
+        <v>94.989874622270776</v>
+      </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
